--- a/biology/Microbiologie/Rickettsiella/Rickettsiella.xlsx
+++ b/biology/Microbiologie/Rickettsiella/Rickettsiella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rickettsiella est un genre de bactéries gram-négatives de la famille des Coxiellaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,23 +551,128 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Rickettsiella Philip 1956[1].
-L'espèce type de ce genre est Rickettsiella popilliae (Dutky &amp; Gooden 1952) Philip 1956[1].
-Rickettsiella a pour synonyme[1] :
-Diplorickettsia Mediannikov et al. 2011
-Étymologie
-L'étymologie du nom de genre des Rickettsiella est la suivante : N.L. fem. n. Rickettsia, genre d'une bactérie parasite; L. fem. dim. n. suff. -ella, suffixe; N.L. fem. dim. n. Rickettsiella, petite Rickettsia[1].
-Liste des espèces valides
-Selon LPSN  (25 février 2024)[1], le genre Rickettsiella comprend les cinq espèces suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Rickettsiella Philip 1956.
+L'espèce type de ce genre est Rickettsiella popilliae (Dutky &amp; Gooden 1952) Philip 1956.
+Rickettsiella a pour synonyme :
+Diplorickettsia Mediannikov et al. 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rickettsiella</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rickettsiella</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de genre des Rickettsiella est la suivante : N.L. fem. n. Rickettsia, genre d'une bactérie parasite; L. fem. dim. n. suff. -ella, suffixe; N.L. fem. dim. n. Rickettsiella, petite Rickettsia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rickettsiella</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rickettsiella</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces valides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (25 février 2024), le genre Rickettsiella comprend les cinq espèces suivantes :
 Rickettsiella chironomi (ex Weiser 1963) Weiss et al. 1984
 Rickettsiella grylli (ex Vago &amp; Martoja 1963) Weiss et al. 1984
 Rickettsiella massiliensis (Mediannikov et al. 2011) Saini &amp; Gupta 2021
 Rickettsiella popilliae (Dutky &amp; Gooden 1952) Philip 1956
-Rickettsiella stethorae Hall &amp; Badgley 1957
-Liste des espèces non valides
-Selon LPSN  (25 février 2024)[1], il existe aussi six espèces ayant le statut de candidatus ou d'espèce dont le nom n'a pas été publié de manière valide :
+Rickettsiella stethorae Hall &amp; Badgley 1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rickettsiella</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rickettsiella</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces non valides</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (25 février 2024), il existe aussi six espèces ayant le statut de candidatus ou d'espèce dont le nom n'a pas été publié de manière valide :
 "Rickettsiella agriotidis" Leclerque et al. 2011
 "Rickettsiella armadillidii" Frutos et al. 1994
 "Rickettsiella costelytrae" Leclerque et al. 2012
